--- a/hw/hw_written_references.xlsx
+++ b/hw/hw_written_references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stewart\Documents\2019fall\STAT771\hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB2874A-3B07-47E6-89B3-D647AAA64DBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B36CA7-7B20-45FF-B67F-E41ED94A9D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A8A8B0F-BF43-4967-921E-262340DC8244}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
   <si>
     <t>question</t>
   </si>
@@ -735,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61436141-DB62-48C3-B765-B0A64E71A21C}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,252 +1042,261 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>36</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>89</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1296,21 +1305,21 @@
     <mergeCell ref="D3:D5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B39" r:id="rId1" xr:uid="{0E249A7A-B499-4957-8AC6-16ACC3525F4B}"/>
-    <hyperlink ref="B37" r:id="rId2" location="Least-squares_minimization" display="https://en.wikipedia.org/wiki/Proofs_involving_the_Moore%E2%80%93Penrose_inverse - Least-squares_minimization" xr:uid="{EC3D0874-7DC6-4163-99DC-21E4EFDADEA6}"/>
-    <hyperlink ref="B36" r:id="rId3" location="General_non-square_diagonal_matrices" display="https://en.wikipedia.org/wiki/Proofs_involving_the_Moore%E2%80%93Penrose_inverse - General_non-square_diagonal_matrices" xr:uid="{903DA425-E7EA-4E53-9EB2-6AF9DED4724D}"/>
-    <hyperlink ref="B40" r:id="rId4" xr:uid="{A9C11F14-1034-492E-B9A1-5B3DBF5EC51D}"/>
-    <hyperlink ref="C40" r:id="rId5" xr:uid="{0DE76F8F-1E1B-4570-808D-C8A534FB8628}"/>
-    <hyperlink ref="B42" r:id="rId6" xr:uid="{50286456-29EA-44D1-A93A-F8DF83E89C2F}"/>
-    <hyperlink ref="C42" r:id="rId7" location="Proof" display="https://en.wikipedia.org/wiki/Laplace_expansion - Proof" xr:uid="{2287D0D6-B8B5-4941-AD70-9F8CEB013E37}"/>
-    <hyperlink ref="D42" r:id="rId8" xr:uid="{5AF668D3-D31B-4ED5-AFD0-66BC4E723681}"/>
-    <hyperlink ref="B43" r:id="rId9" location="Jordan-decomposition%28%7B%7B5,1,0%7D,%7B0,5,1%7D,%7B0,0,5%7D%7D%29" display="https://matrixcalc.org/en/vectors.html - Jordan-decomposition%28%7B%7B5,1,0%7D,%7B0,5,1%7D,%7B0,0,5%7D%7D%29" xr:uid="{0A02414C-70D8-4197-A419-599D65C9EC41}"/>
-    <hyperlink ref="C43" r:id="rId10" xr:uid="{FABBD46C-2626-4912-84B3-ACBDEE9A5E91}"/>
-    <hyperlink ref="C44" r:id="rId11" xr:uid="{3446B821-5E5B-4485-9251-B90B5FD1CEF9}"/>
-    <hyperlink ref="B44" r:id="rId12" xr:uid="{8DD9A1B7-5678-4611-B03E-FA4F4ECEFBCD}"/>
-    <hyperlink ref="B45" r:id="rId13" xr:uid="{AD733FEA-0FC0-40B3-B55F-B6C99119290E}"/>
-    <hyperlink ref="C45" r:id="rId14" xr:uid="{BBDB32A4-CF28-4972-A34B-44CA879C92FF}"/>
-    <hyperlink ref="D45" r:id="rId15" xr:uid="{39E1B790-A368-4EF6-9F30-9C725FF6119D}"/>
+    <hyperlink ref="B40" r:id="rId1" xr:uid="{0E249A7A-B499-4957-8AC6-16ACC3525F4B}"/>
+    <hyperlink ref="B38" r:id="rId2" location="Least-squares_minimization" display="https://en.wikipedia.org/wiki/Proofs_involving_the_Moore%E2%80%93Penrose_inverse - Least-squares_minimization" xr:uid="{EC3D0874-7DC6-4163-99DC-21E4EFDADEA6}"/>
+    <hyperlink ref="B37" r:id="rId3" location="General_non-square_diagonal_matrices" display="https://en.wikipedia.org/wiki/Proofs_involving_the_Moore%E2%80%93Penrose_inverse - General_non-square_diagonal_matrices" xr:uid="{903DA425-E7EA-4E53-9EB2-6AF9DED4724D}"/>
+    <hyperlink ref="B41" r:id="rId4" xr:uid="{A9C11F14-1034-492E-B9A1-5B3DBF5EC51D}"/>
+    <hyperlink ref="C41" r:id="rId5" xr:uid="{0DE76F8F-1E1B-4570-808D-C8A534FB8628}"/>
+    <hyperlink ref="B43" r:id="rId6" xr:uid="{50286456-29EA-44D1-A93A-F8DF83E89C2F}"/>
+    <hyperlink ref="C43" r:id="rId7" location="Proof" display="https://en.wikipedia.org/wiki/Laplace_expansion - Proof" xr:uid="{2287D0D6-B8B5-4941-AD70-9F8CEB013E37}"/>
+    <hyperlink ref="D43" r:id="rId8" xr:uid="{5AF668D3-D31B-4ED5-AFD0-66BC4E723681}"/>
+    <hyperlink ref="B44" r:id="rId9" location="Jordan-decomposition%28%7B%7B5,1,0%7D,%7B0,5,1%7D,%7B0,0,5%7D%7D%29" display="https://matrixcalc.org/en/vectors.html - Jordan-decomposition%28%7B%7B5,1,0%7D,%7B0,5,1%7D,%7B0,0,5%7D%7D%29" xr:uid="{0A02414C-70D8-4197-A419-599D65C9EC41}"/>
+    <hyperlink ref="C44" r:id="rId10" xr:uid="{FABBD46C-2626-4912-84B3-ACBDEE9A5E91}"/>
+    <hyperlink ref="C45" r:id="rId11" xr:uid="{3446B821-5E5B-4485-9251-B90B5FD1CEF9}"/>
+    <hyperlink ref="B45" r:id="rId12" xr:uid="{8DD9A1B7-5678-4611-B03E-FA4F4ECEFBCD}"/>
+    <hyperlink ref="B46" r:id="rId13" xr:uid="{AD733FEA-0FC0-40B3-B55F-B6C99119290E}"/>
+    <hyperlink ref="C46" r:id="rId14" xr:uid="{BBDB32A4-CF28-4972-A34B-44CA879C92FF}"/>
+    <hyperlink ref="D46" r:id="rId15" xr:uid="{39E1B790-A368-4EF6-9F30-9C725FF6119D}"/>
     <hyperlink ref="B3" r:id="rId16" xr:uid="{E3745527-3C83-4E18-86CA-BCF12DBE767D}"/>
     <hyperlink ref="C3" r:id="rId17" xr:uid="{DD2D79DF-B94D-4FA2-B0FC-788DB3D3A60F}"/>
     <hyperlink ref="B4" r:id="rId18" xr:uid="{16350D0A-6E70-4183-874E-E982BCF906FE}"/>
@@ -1352,41 +1361,42 @@
     <hyperlink ref="B25" r:id="rId54" location="Symmetric_successive_over-relaxation" display="https://en.wikipedia.org/wiki/Successive_over-relaxation - Symmetric_successive_over-relaxation" xr:uid="{856E1C7F-FFF9-4E84-8DD6-485F2C29A6B7}"/>
     <hyperlink ref="B26" r:id="rId55" xr:uid="{F915FBB0-ABB8-4967-A03E-D635252E22EC}"/>
     <hyperlink ref="C26" r:id="rId56" xr:uid="{0DFA260A-67D1-4696-B2F3-2D6656C45C1C}"/>
-    <hyperlink ref="C31" r:id="rId57" xr:uid="{88CA32F6-2C17-4D5A-8F73-2204AF2E2252}"/>
-    <hyperlink ref="B31" r:id="rId58" xr:uid="{D4364F92-E610-48C0-9D4F-5D3D62DEE7B5}"/>
-    <hyperlink ref="D31" r:id="rId59" xr:uid="{5EFF647C-7F63-4BE3-A853-25D2DA0D19BF}"/>
-    <hyperlink ref="E31" r:id="rId60" xr:uid="{E50BB016-C933-4956-B296-5033FF678B60}"/>
-    <hyperlink ref="C32" r:id="rId61" xr:uid="{F69DB48A-69B5-4967-BC4D-F24FBA64B020}"/>
-    <hyperlink ref="B32" r:id="rId62" xr:uid="{38210CD9-FE0A-43A7-B884-623A1E568B33}"/>
-    <hyperlink ref="B33" r:id="rId63" xr:uid="{C107D027-47BA-4D5A-9525-66D9E12F3F0A}"/>
-    <hyperlink ref="C34" r:id="rId64" xr:uid="{DBC46357-A06A-4E0E-9492-16C00F5BA650}"/>
-    <hyperlink ref="D34" r:id="rId65" xr:uid="{5A11C1A0-1518-44B7-99DD-E8FEC08785B2}"/>
-    <hyperlink ref="B34" r:id="rId66" xr:uid="{8E024C46-25A0-497E-9C82-3CD9527D0E4D}"/>
-    <hyperlink ref="B35" r:id="rId67" xr:uid="{6075D018-5CAB-40EA-A557-44F0A8A7CE7D}"/>
-    <hyperlink ref="C35" r:id="rId68" xr:uid="{9EE9BBF1-161A-47E0-8757-296191FDE47E}"/>
-    <hyperlink ref="C29" r:id="rId69" xr:uid="{3DBDA9E3-2CC5-4D1F-A30F-147896A713EA}"/>
-    <hyperlink ref="B29" r:id="rId70" xr:uid="{2EC7A0D2-D424-470D-8A46-CC2A93D99D91}"/>
+    <hyperlink ref="C32" r:id="rId57" xr:uid="{88CA32F6-2C17-4D5A-8F73-2204AF2E2252}"/>
+    <hyperlink ref="B32" r:id="rId58" xr:uid="{D4364F92-E610-48C0-9D4F-5D3D62DEE7B5}"/>
+    <hyperlink ref="D32" r:id="rId59" xr:uid="{5EFF647C-7F63-4BE3-A853-25D2DA0D19BF}"/>
+    <hyperlink ref="E32" r:id="rId60" xr:uid="{E50BB016-C933-4956-B296-5033FF678B60}"/>
+    <hyperlink ref="C33" r:id="rId61" xr:uid="{F69DB48A-69B5-4967-BC4D-F24FBA64B020}"/>
+    <hyperlink ref="B33" r:id="rId62" xr:uid="{38210CD9-FE0A-43A7-B884-623A1E568B33}"/>
+    <hyperlink ref="B34" r:id="rId63" xr:uid="{C107D027-47BA-4D5A-9525-66D9E12F3F0A}"/>
+    <hyperlink ref="C35" r:id="rId64" xr:uid="{DBC46357-A06A-4E0E-9492-16C00F5BA650}"/>
+    <hyperlink ref="D35" r:id="rId65" xr:uid="{5A11C1A0-1518-44B7-99DD-E8FEC08785B2}"/>
+    <hyperlink ref="B35" r:id="rId66" xr:uid="{8E024C46-25A0-497E-9C82-3CD9527D0E4D}"/>
+    <hyperlink ref="B36" r:id="rId67" xr:uid="{6075D018-5CAB-40EA-A557-44F0A8A7CE7D}"/>
+    <hyperlink ref="C36" r:id="rId68" xr:uid="{9EE9BBF1-161A-47E0-8757-296191FDE47E}"/>
+    <hyperlink ref="C30" r:id="rId69" xr:uid="{3DBDA9E3-2CC5-4D1F-A30F-147896A713EA}"/>
+    <hyperlink ref="B30" r:id="rId70" xr:uid="{2EC7A0D2-D424-470D-8A46-CC2A93D99D91}"/>
     <hyperlink ref="C6" r:id="rId71" location="Representable_numbers,_conversion_and_rounding" display="https://en.wikipedia.org/wiki/Floating-point_arithmetic - Representable_numbers,_conversion_and_rounding" xr:uid="{66097BB9-39DD-4D7D-BDE8-957CDD31F63F}"/>
     <hyperlink ref="B6" r:id="rId72" xr:uid="{6EA398F9-B6FF-413B-97B5-6BC33FC5E13E}"/>
     <hyperlink ref="B10" r:id="rId73" xr:uid="{13272159-400A-4448-B3B2-FF5EC419625D}"/>
-    <hyperlink ref="B28" r:id="rId74" location="Inner_Product_on_a_Real_Vector_Space" display="https://yutsumura.com/a-symmetric-positive-definite-matrix-and-an-inner-product-on-a-vector-space/ - Inner_Product_on_a_Real_Vector_Space" xr:uid="{4E770DF9-7505-4E84-B9F2-1A40819F73D5}"/>
-    <hyperlink ref="D28" r:id="rId75" xr:uid="{7AEA3DA8-92FD-4032-A5CC-0ACC3B69D9CC}"/>
-    <hyperlink ref="E28" r:id="rId76" xr:uid="{1D111AA0-3F45-4156-8B2F-AA93CB4AEC50}"/>
-    <hyperlink ref="B48" r:id="rId77" xr:uid="{850D7276-51E5-47C1-AB34-FD0785CEAA71}"/>
-    <hyperlink ref="C48" r:id="rId78" xr:uid="{5C7BA911-8510-43E9-8872-283D872BDB23}"/>
-    <hyperlink ref="D48" r:id="rId79" xr:uid="{0B52FED8-7403-49B2-BA2E-5EEE9183516F}"/>
-    <hyperlink ref="B27" r:id="rId80" xr:uid="{564D4314-83F5-4DDA-B836-3E739C519C10}"/>
-    <hyperlink ref="C28" r:id="rId81" xr:uid="{E10730F2-9A88-4642-BBCE-0E3F07D20190}"/>
-    <hyperlink ref="C27" r:id="rId82" xr:uid="{B3459FBB-A6BB-4A60-8A6E-C79B7BCB8B95}"/>
-    <hyperlink ref="D27" r:id="rId83" xr:uid="{B65256F1-AD9D-4B00-A843-7AFEDDEC093C}"/>
-    <hyperlink ref="B50" r:id="rId84" xr:uid="{3E9D659A-7EBF-485C-A22B-8448A3100894}"/>
-    <hyperlink ref="D40" r:id="rId85" xr:uid="{B2C624DD-ED4C-437F-B75C-CFEC6BFD8CC1}"/>
-    <hyperlink ref="B41" r:id="rId86" xr:uid="{C5ABD800-FC7A-490D-92EB-0DED6841A788}"/>
+    <hyperlink ref="B29" r:id="rId74" location="Inner_Product_on_a_Real_Vector_Space" display="https://yutsumura.com/a-symmetric-positive-definite-matrix-and-an-inner-product-on-a-vector-space/ - Inner_Product_on_a_Real_Vector_Space" xr:uid="{4E770DF9-7505-4E84-B9F2-1A40819F73D5}"/>
+    <hyperlink ref="D29" r:id="rId75" xr:uid="{7AEA3DA8-92FD-4032-A5CC-0ACC3B69D9CC}"/>
+    <hyperlink ref="E29" r:id="rId76" xr:uid="{1D111AA0-3F45-4156-8B2F-AA93CB4AEC50}"/>
+    <hyperlink ref="B49" r:id="rId77" xr:uid="{850D7276-51E5-47C1-AB34-FD0785CEAA71}"/>
+    <hyperlink ref="C49" r:id="rId78" xr:uid="{5C7BA911-8510-43E9-8872-283D872BDB23}"/>
+    <hyperlink ref="D49" r:id="rId79" xr:uid="{0B52FED8-7403-49B2-BA2E-5EEE9183516F}"/>
+    <hyperlink ref="B28" r:id="rId80" xr:uid="{564D4314-83F5-4DDA-B836-3E739C519C10}"/>
+    <hyperlink ref="C29" r:id="rId81" xr:uid="{E10730F2-9A88-4642-BBCE-0E3F07D20190}"/>
+    <hyperlink ref="C28" r:id="rId82" xr:uid="{B3459FBB-A6BB-4A60-8A6E-C79B7BCB8B95}"/>
+    <hyperlink ref="D28" r:id="rId83" xr:uid="{B65256F1-AD9D-4B00-A843-7AFEDDEC093C}"/>
+    <hyperlink ref="B51" r:id="rId84" xr:uid="{3E9D659A-7EBF-485C-A22B-8448A3100894}"/>
+    <hyperlink ref="D41" r:id="rId85" xr:uid="{B2C624DD-ED4C-437F-B75C-CFEC6BFD8CC1}"/>
+    <hyperlink ref="B42" r:id="rId86" xr:uid="{C5ABD800-FC7A-490D-92EB-0DED6841A788}"/>
     <hyperlink ref="B17" r:id="rId87" xr:uid="{600098D4-A1C1-4140-87F0-008B450B3846}"/>
     <hyperlink ref="C17" r:id="rId88" xr:uid="{080793B2-6924-4367-B89F-554596953AD4}"/>
-    <hyperlink ref="C30" r:id="rId89" xr:uid="{120F6C3A-F16D-4C9A-843B-6B7EA60840FD}"/>
+    <hyperlink ref="C31" r:id="rId89" xr:uid="{120F6C3A-F16D-4C9A-843B-6B7EA60840FD}"/>
     <hyperlink ref="B15" r:id="rId90" xr:uid="{167D837A-B560-491F-832B-66AAD6C45A86}"/>
     <hyperlink ref="C15" r:id="rId91" xr:uid="{B2535EA6-2F0C-4EFF-A877-8223D7D46E8B}"/>
+    <hyperlink ref="B27" r:id="rId92" xr:uid="{49B9B900-0723-441E-9C30-DE87CC0C3DB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
